--- a/server/excel_controller/cell-style-samples.xlsx
+++ b/server/excel_controller/cell-style-samples.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t xml:space="preserve"> Text</t>
   </si>
@@ -41,11 +41,17 @@
   <si>
     <t>Instruction Text</t>
   </si>
+  <si>
+    <t xml:space="preserve"> Date</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="[$-409]d\-mmm\-yy;@"/>
+  </numFmts>
   <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -200,7 +206,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="36">
+  <fills count="37">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -395,6 +401,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -574,7 +586,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -587,6 +599,9 @@
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="20" fillId="35" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="19" fillId="36" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -910,84 +925,87 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="6" width="14.5703125" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9" customWidth="1"/>
+    <col min="1" max="7" width="14.5703125" customWidth="1"/>
+    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>0</v>
+      <c r="B1" s="3" t="s">
+        <v>2</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>3</v>
+      <c r="C1" s="6" t="s">
+        <v>7</v>
       </c>
       <c r="D1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="G1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="H1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G2" s="4"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G3" s="4"/>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G4" s="4"/>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G5" s="4"/>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G6" s="4"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f xml:space="preserve"> ""</f>
         <v/>
       </c>
-      <c r="G7" s="4"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G8" s="4"/>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G9" s="4"/>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G10" s="4"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G11" s="4"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G12" s="4"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G13" s="4"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="G14" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H14" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/server/excel_controller/cell-style-samples.xlsx
+++ b/server/excel_controller/cell-style-samples.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t xml:space="preserve"> Text</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t xml:space="preserve"> Date</t>
+  </si>
+  <si>
+    <t>ID</t>
   </si>
 </sst>
 </file>
@@ -586,7 +589,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="33" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -602,6 +605,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="19" fillId="36" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="29" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -925,20 +931,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H14"/>
+  <dimension ref="A1:I14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="14.5703125" customWidth="1"/>
-    <col min="8" max="8" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9" customWidth="1"/>
+    <col min="1" max="8" width="14.5703125" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -948,64 +954,67 @@
       <c r="C1" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="7" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="F1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="I1" s="5" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H4" s="4"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H5" s="4"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H6" s="4"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I4" s="4"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I5" s="4"/>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I6" s="4"/>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="str">
         <f xml:space="preserve"> ""</f>
         <v/>
       </c>
-      <c r="H7" s="4"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H8" s="4"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H9" s="4"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H11" s="4"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H12" s="4"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H13" s="4"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="H14" s="4"/>
+      <c r="I7" s="4"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I8" s="4"/>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I9" s="4"/>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I10" s="4"/>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I11" s="4"/>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I12" s="4"/>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I13" s="4"/>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I14" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
